--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>需要金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockPars1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,13 +530,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -535,7 +551,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -554,8 +570,14 @@
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -574,8 +596,14 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -594,8 +622,14 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="MakeConfig" sheetId="1" r:id="rId2"/>
+    <sheet name="MakeCategoryConfig" sheetId="3" r:id="rId2"/>
+    <sheet name="MakeConfig" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,70 @@
   </si>
   <si>
     <t>解锁参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguageKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般是消耗小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用来制作其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很拥有的哦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +224,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,6 +274,11 @@
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -492,22 +583,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -519,6 +610,20 @@
       </c>
       <c r="D1" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -530,28 +635,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="10.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I2">
+      <formula1>"String,Int,DateTime,Float"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,8 +816,11 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,8 +845,11 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -628,8 +874,11 @@
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -641,6 +890,9 @@
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -76,107 +76,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>制作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequireGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockPars1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeCategoryConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguageKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般是消耗小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用来制作其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很拥有的哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2:10|1:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequireGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockPars1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeCategoryConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeCategoryConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeCategoryConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanguageKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般是消耗小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般用来制作其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很拥有的哦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,30 +600,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -665,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -707,10 +707,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -723,11 +723,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -771,11 +771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,16 +866,16 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,10 +886,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制作表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +173,10 @@
   </si>
   <si>
     <t>2:10|1:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,30 +600,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -665,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -707,10 +707,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -723,11 +723,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +775,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15:G16"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,16 +866,16 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="1905" yWindow="195" windowWidth="16905" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="MakeCategoryConfig" sheetId="3" r:id="rId2"/>
-    <sheet name="MakeConfig" sheetId="1" r:id="rId3"/>
+    <sheet name="MakeConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃木剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardItems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,75 +99,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MakeCategoryConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeCategoryConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeCategoryConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanguageKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般是消耗小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般用来制作其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很拥有的哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:10|1:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:1</t>
+    <t>灵纹布</t>
+  </si>
+  <si>
+    <t>藏风棉</t>
+  </si>
+  <si>
+    <t>硕石</t>
+  </si>
+  <si>
+    <t>打磨杵</t>
+  </si>
+  <si>
+    <t>青麟布</t>
+  </si>
+  <si>
+    <t>璃焱骨</t>
+  </si>
+  <si>
+    <t>子午铜</t>
+  </si>
+  <si>
+    <t>摄心玉</t>
+  </si>
+  <si>
+    <t>油丝布</t>
+  </si>
+  <si>
+    <t>百纳布</t>
+  </si>
+  <si>
+    <t>退尘丝</t>
+  </si>
+  <si>
+    <t>省身木</t>
+  </si>
+  <si>
+    <t>浣火藤</t>
+  </si>
+  <si>
+    <t>褐铁</t>
+  </si>
+  <si>
+    <t>镇国锦帛</t>
+  </si>
+  <si>
+    <t>火云木</t>
+  </si>
+  <si>
+    <t>云锦</t>
+  </si>
+  <si>
+    <t>佛尘</t>
+  </si>
+  <si>
+    <t>梵文布</t>
+  </si>
+  <si>
+    <t>盛龙钢</t>
+  </si>
+  <si>
+    <t>玲珑丝</t>
+  </si>
+  <si>
+    <t>风钢</t>
+  </si>
+  <si>
+    <t>赤火狐皮</t>
+  </si>
+  <si>
+    <t>幽冥布</t>
+  </si>
+  <si>
+    <t>樊隍革</t>
+  </si>
+  <si>
+    <t>刻魂石</t>
+  </si>
+  <si>
+    <t>腾龙木</t>
+  </si>
+  <si>
+    <t>赤铜</t>
+  </si>
+  <si>
+    <t>火云石</t>
+  </si>
+  <si>
+    <t>硬甲皮</t>
+  </si>
+  <si>
+    <t>炭火炉</t>
+  </si>
+  <si>
+    <t>绣火扇</t>
+  </si>
+  <si>
+    <t>省身禅</t>
+  </si>
+  <si>
+    <t>度人经</t>
+  </si>
+  <si>
+    <t>比丘袈裟</t>
+  </si>
+  <si>
+    <t>云锦袈裟</t>
+  </si>
+  <si>
+    <t>降妖杵</t>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+  </si>
+  <si>
+    <t>夜纹袍</t>
+  </si>
+  <si>
+    <t>丰饶罩衫</t>
+  </si>
+  <si>
+    <t>灭离爪</t>
+  </si>
+  <si>
+    <t>九幽幡</t>
+  </si>
+  <si>
+    <t>兽甲</t>
+  </si>
+  <si>
+    <t>飞隍甲</t>
+  </si>
+  <si>
+    <t>引魂幡</t>
+  </si>
+  <si>
+    <t>丰都令</t>
+  </si>
+  <si>
+    <t>黑纹袍</t>
+  </si>
+  <si>
+    <t>月冕袍</t>
+  </si>
+  <si>
+    <t>皂缨枪</t>
+  </si>
+  <si>
+    <t>唤风铃</t>
+  </si>
+  <si>
+    <t>火芭蕉</t>
+  </si>
+  <si>
+    <t>还魂幡</t>
+  </si>
+  <si>
+    <t>粗铁矿锄</t>
+  </si>
+  <si>
+    <t>轻钢矿锄</t>
+  </si>
+  <si>
+    <t>精致矿锄</t>
+  </si>
+  <si>
+    <t>红幡矿锄</t>
+  </si>
+  <si>
+    <t>锻火矿锄</t>
+  </si>
+  <si>
+    <t>制作方式解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的制作卷轴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequireItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItemsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>20|22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41|43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43|44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38|39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45|46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53|35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41|39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56|43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,34 +518,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,23 +552,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -297,7 +643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,47 +929,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -635,163 +967,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="10.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I2">
-      <formula1>"String,Int,DateTime,Float"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -801,26 +1000,29 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -830,26 +1032,29 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,49 +1064,1544 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="5">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="5">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="5">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="5">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14">
+        <v>18</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="5">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="5">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="15">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="5">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="5">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="5">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="13">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="16">
+        <v>24</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="5">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E22" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="5">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="9">
+        <v>20</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5">
+        <v>48</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5">
+        <v>49</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="11">
+        <v>13</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="9">
+        <v>20</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="5">
+        <v>52</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="11">
+        <v>25</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="5">
+        <v>53</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="9">
+        <v>19</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="5">
+        <v>54</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="9">
+        <v>10</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="5">
+        <v>55</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5">
+        <v>56</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="16">
+        <v>24</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="11">
+        <v>13</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="5">
+        <v>58</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="5">
+        <v>59</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="5">
+        <v>60</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2">
+        <v>61</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="2">
+        <v>62</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5">
+        <v>37</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="2">
+        <v>65</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5">
+        <v>44</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="2">
+        <v>66</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5">
+        <v>34</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="2">
+        <v>69</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="5">
+        <v>47</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2">
+        <v>70</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
+      <c r="C43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="5">
+        <v>32</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="5">
+        <v>48</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="2">
+        <v>74</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="5">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="5">
+        <v>51</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="5">
+        <v>58</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="5">
+        <v>52</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="5">
+        <v>36</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="2">
+        <v>89</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="5">
+        <v>48</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="2">
+        <v>90</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="5">
+        <v>55</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="2">
+        <v>93</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="5">
+        <v>49</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="2">
+        <v>96</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="5">
+        <v>40</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="5">
+        <v>28</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="5">
+        <v>105</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="5">
+        <v>107</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="5">
+        <v>108</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="5">
+        <v>109</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="5">
+        <v>110</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="5">
+        <v>111</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="195" windowWidth="16905" windowHeight="9165" activeTab="1"/>
+    <workbookView xWindow="14880" yWindow="300" windowWidth="18255" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,177 +97,6 @@
   <si>
     <t>解锁参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵纹布</t>
-  </si>
-  <si>
-    <t>藏风棉</t>
-  </si>
-  <si>
-    <t>硕石</t>
-  </si>
-  <si>
-    <t>打磨杵</t>
-  </si>
-  <si>
-    <t>青麟布</t>
-  </si>
-  <si>
-    <t>璃焱骨</t>
-  </si>
-  <si>
-    <t>子午铜</t>
-  </si>
-  <si>
-    <t>摄心玉</t>
-  </si>
-  <si>
-    <t>油丝布</t>
-  </si>
-  <si>
-    <t>百纳布</t>
-  </si>
-  <si>
-    <t>退尘丝</t>
-  </si>
-  <si>
-    <t>省身木</t>
-  </si>
-  <si>
-    <t>浣火藤</t>
-  </si>
-  <si>
-    <t>褐铁</t>
-  </si>
-  <si>
-    <t>镇国锦帛</t>
-  </si>
-  <si>
-    <t>火云木</t>
-  </si>
-  <si>
-    <t>云锦</t>
-  </si>
-  <si>
-    <t>佛尘</t>
-  </si>
-  <si>
-    <t>梵文布</t>
-  </si>
-  <si>
-    <t>盛龙钢</t>
-  </si>
-  <si>
-    <t>玲珑丝</t>
-  </si>
-  <si>
-    <t>风钢</t>
-  </si>
-  <si>
-    <t>赤火狐皮</t>
-  </si>
-  <si>
-    <t>幽冥布</t>
-  </si>
-  <si>
-    <t>樊隍革</t>
-  </si>
-  <si>
-    <t>刻魂石</t>
-  </si>
-  <si>
-    <t>腾龙木</t>
-  </si>
-  <si>
-    <t>赤铜</t>
-  </si>
-  <si>
-    <t>火云石</t>
-  </si>
-  <si>
-    <t>硬甲皮</t>
-  </si>
-  <si>
-    <t>炭火炉</t>
-  </si>
-  <si>
-    <t>绣火扇</t>
-  </si>
-  <si>
-    <t>省身禅</t>
-  </si>
-  <si>
-    <t>度人经</t>
-  </si>
-  <si>
-    <t>比丘袈裟</t>
-  </si>
-  <si>
-    <t>云锦袈裟</t>
-  </si>
-  <si>
-    <t>降妖杵</t>
-  </si>
-  <si>
-    <t>乾坤圈</t>
-  </si>
-  <si>
-    <t>夜纹袍</t>
-  </si>
-  <si>
-    <t>丰饶罩衫</t>
-  </si>
-  <si>
-    <t>灭离爪</t>
-  </si>
-  <si>
-    <t>九幽幡</t>
-  </si>
-  <si>
-    <t>兽甲</t>
-  </si>
-  <si>
-    <t>飞隍甲</t>
-  </si>
-  <si>
-    <t>引魂幡</t>
-  </si>
-  <si>
-    <t>丰都令</t>
-  </si>
-  <si>
-    <t>黑纹袍</t>
-  </si>
-  <si>
-    <t>月冕袍</t>
-  </si>
-  <si>
-    <t>皂缨枪</t>
-  </si>
-  <si>
-    <t>唤风铃</t>
-  </si>
-  <si>
-    <t>火芭蕉</t>
-  </si>
-  <si>
-    <t>还魂幡</t>
-  </si>
-  <si>
-    <t>粗铁矿锄</t>
-  </si>
-  <si>
-    <t>轻钢矿锄</t>
-  </si>
-  <si>
-    <t>精致矿锄</t>
-  </si>
-  <si>
-    <t>红幡矿锄</t>
-  </si>
-  <si>
-    <t>锻火矿锄</t>
   </si>
   <si>
     <t>制作方式解锁条件</t>
@@ -325,149 +154,535 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>灵纹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏风棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打磨杵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麟布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璃焱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄心玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百纳布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退尘丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浣火藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇国锦帛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵文布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛龙钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤火狐皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊隍革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬甲皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月纹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级矿锄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>炭火炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣火扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰饶罩衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度人经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九幽幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞隍甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皂缨枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤风铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火芭蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰都令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月冕袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比丘袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭离爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降妖杵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石硝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55|56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42|43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44|45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34|52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37|38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31|32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>20|22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41|43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43|44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38|39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45|46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53|35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41|39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56|43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,13 +739,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,36 +769,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -587,20 +809,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,22 +822,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,18 +1172,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="5" bestFit="1" customWidth="1"/>
@@ -1004,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -1065,15 +1270,17 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1088,838 +1295,838 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="5">
-        <v>29</v>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="5">
-        <v>30</v>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="5">
-        <v>31</v>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="5">
-        <v>32</v>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
         <v>23</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="5">
-        <v>33</v>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5">
-        <v>34</v>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="5">
-        <v>35</v>
+      <c r="E11" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
         <v>18</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="5">
-        <v>36</v>
+      <c r="E12" s="2">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="5">
-        <v>37</v>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="5">
-        <v>38</v>
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="5">
-        <v>39</v>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="5">
-        <v>40</v>
+      <c r="E16" s="2">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2">
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="5">
-        <v>41</v>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2">
         <v>19</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="5">
-        <v>42</v>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="5">
-        <v>43</v>
+      <c r="E19" s="2">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44</v>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2">
         <v>24</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="5">
-        <v>45</v>
+      <c r="E21" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2">
         <v>20</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5">
-        <v>46</v>
+      <c r="E22" s="2">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5">
-        <v>47</v>
+      <c r="E23" s="2">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5">
-        <v>48</v>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="5">
-        <v>49</v>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2">
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
         <v>13</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="2">
         <v>50</v>
       </c>
+      <c r="F26" s="2">
+        <v>49</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2">
         <v>20</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="5">
-        <v>51</v>
+      <c r="E27" s="2">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2">
         <v>15</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="5">
-        <v>52</v>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="2">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
+        <v>52</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
         <v>84</v>
-      </c>
-      <c r="F29" s="5">
-        <v>53</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2">
         <v>19</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="5">
-        <v>54</v>
+      <c r="E30" s="2">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2">
+        <v>53</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="5">
-        <v>55</v>
+      <c r="E31" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2">
+        <v>54</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="5">
-        <v>56</v>
+      <c r="E32" s="2">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2">
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2">
         <v>24</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="5">
-        <v>57</v>
+      <c r="E33" s="2">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2">
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
         <v>50</v>
       </c>
-      <c r="D34" s="11">
-        <v>13</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="5">
-        <v>58</v>
+      <c r="F34" s="2">
+        <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
         <v>89</v>
       </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="5">
-        <v>59</v>
+      <c r="C35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2">
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -1927,25 +2134,25 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="5">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="2">
+        <v>96</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <v>145</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -1953,25 +2160,25 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F37" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" s="2">
-        <v>146</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -1979,25 +2186,25 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F38" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2005,25 +2212,25 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="5">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F39" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -2031,571 +2238,753 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="5">
-        <v>44</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F40" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" s="2">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="5">
-        <v>34</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>98</v>
+      <c r="C41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F41" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" s="2">
-        <v>154</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="5">
-        <v>47</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>97</v>
+      <c r="C42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F42" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="5">
-        <v>32</v>
+      <c r="C43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F43" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="5">
-        <v>48</v>
+      <c r="C44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F44" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="5">
-        <v>33</v>
+      <c r="C45" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F45" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="5">
-        <v>51</v>
+      <c r="C46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F46" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="5">
-        <v>58</v>
+      <c r="C47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F47" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="5">
-        <v>52</v>
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F48" s="2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
       </c>
       <c r="J48" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
+      <c r="C49" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="2">
+        <v>130</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
         <v>111</v>
       </c>
-      <c r="F49" s="2">
-        <v>85</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>66</v>
+      <c r="C50" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="2">
+        <v>131</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
         <v>112</v>
       </c>
-      <c r="F50" s="2">
-        <v>86</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="5">
-        <v>36</v>
+      <c r="C51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F51" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="5">
-        <v>48</v>
+      <c r="C52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F52" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="5">
-        <v>55</v>
+      <c r="C53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
       </c>
       <c r="J53" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="5">
-        <v>49</v>
+      <c r="C54" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
       </c>
       <c r="J54" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="5">
-        <v>40</v>
+      <c r="C55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="5">
-        <v>28</v>
+      <c r="C56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="5">
-        <v>105</v>
+        <v>132</v>
+      </c>
+      <c r="F56" s="2">
+        <v>137</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>73</v>
+      <c r="C57" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" s="5">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="F57" s="2">
+        <v>138</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
       </c>
       <c r="J57" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>74</v>
+      <c r="C58" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="5">
-        <v>108</v>
+        <v>136</v>
+      </c>
+      <c r="F58" s="2">
+        <v>139</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
       </c>
       <c r="J58" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>75</v>
+      <c r="C59" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="5">
-        <v>109</v>
+        <v>136</v>
+      </c>
+      <c r="F59" s="2">
+        <v>140</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
       </c>
       <c r="J59" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>76</v>
+      <c r="C60" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" s="5">
-        <v>110</v>
+        <v>139</v>
+      </c>
+      <c r="F60" s="2">
+        <v>141</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I60" s="2">
         <v>1</v>
       </c>
       <c r="J60" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>77</v>
+      <c r="C61" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="5">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="F61" s="2">
+        <v>142</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="13">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2">
+        <v>148</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="13">
+        <v>28</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="2">
+        <v>149</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="13">
+        <v>41</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="2">
+        <v>150</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="13">
+        <v>58</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="2">
+        <v>151</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="13">
+        <v>49</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="2">
+        <v>152</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>194</v>
+      <c r="D67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="2">
+        <v>166</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="2">
+        <v>167</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,14 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxProduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,15 +1195,16 @@
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1226,8 +1235,11 @@
       <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1258,8 +1270,11 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1305,11 @@
       <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1316,8 +1334,11 @@
       <c r="J4" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1342,8 +1363,11 @@
       <c r="J5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1371,8 +1395,11 @@
       <c r="J6" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1400,8 +1427,11 @@
       <c r="J7" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -1426,8 +1456,11 @@
       <c r="J8" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -1452,8 +1485,11 @@
       <c r="J9" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -1478,8 +1514,11 @@
       <c r="J10" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -1504,8 +1543,11 @@
       <c r="J11" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -1530,8 +1572,11 @@
       <c r="J12" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -1556,8 +1601,11 @@
       <c r="J13" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K13" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1582,8 +1630,11 @@
       <c r="J14" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -1608,8 +1659,11 @@
       <c r="J15" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K15" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -1634,8 +1688,11 @@
       <c r="J16" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K16" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1660,8 +1717,11 @@
       <c r="J17" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K17" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1686,8 +1746,11 @@
       <c r="J18" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1712,8 +1775,11 @@
       <c r="J19" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1738,8 +1804,11 @@
       <c r="J20" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1764,8 +1833,11 @@
       <c r="J21" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1790,8 +1862,11 @@
       <c r="J22" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K22" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1816,8 +1891,11 @@
       <c r="J23" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K23" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1842,8 +1920,11 @@
       <c r="J24" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K24" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1868,8 +1949,11 @@
       <c r="J25" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K25" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1894,8 +1978,11 @@
       <c r="J26" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K26" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="J27" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K27" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1946,8 +2036,11 @@
       <c r="J28" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1972,8 +2065,11 @@
       <c r="J29" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K29" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -1998,8 +2094,11 @@
       <c r="J30" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K30" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -2024,8 +2123,11 @@
       <c r="J31" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K31" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -2050,8 +2152,11 @@
       <c r="J32" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -2076,8 +2181,11 @@
       <c r="J33" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -2102,8 +2210,11 @@
       <c r="J34" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K34" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -2128,8 +2239,11 @@
       <c r="J35" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -2154,8 +2268,11 @@
       <c r="J36" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -2180,8 +2297,11 @@
       <c r="J37" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -2206,8 +2326,11 @@
       <c r="J38" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -2232,8 +2355,11 @@
       <c r="J39" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -2258,8 +2384,11 @@
       <c r="J40" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -2284,8 +2413,11 @@
       <c r="J41" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -2310,8 +2442,11 @@
       <c r="J42" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -2336,8 +2471,11 @@
       <c r="J43" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K43" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -2362,8 +2500,11 @@
       <c r="J44" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K44" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -2388,8 +2529,11 @@
       <c r="J45" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K45" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -2414,8 +2558,11 @@
       <c r="J46" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K46" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -2440,8 +2587,11 @@
       <c r="J47" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K47" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -2466,8 +2616,11 @@
       <c r="J48" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K48" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -2492,8 +2645,11 @@
       <c r="J49" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K49" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -2518,8 +2674,11 @@
       <c r="J50" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K50" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -2544,8 +2703,11 @@
       <c r="J51" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K51" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -2570,8 +2732,11 @@
       <c r="J52" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K52" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -2596,8 +2761,11 @@
       <c r="J53" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K53" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -2622,8 +2790,11 @@
       <c r="J54" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K54" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -2648,8 +2819,11 @@
       <c r="J55" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K55" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -2674,8 +2848,11 @@
       <c r="J56" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K56" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -2700,8 +2877,11 @@
       <c r="J57" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K57" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -2726,8 +2906,11 @@
       <c r="J58" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K58" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -2752,8 +2935,11 @@
       <c r="J59" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K59" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -2778,8 +2964,11 @@
       <c r="J60" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K60" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -2804,8 +2993,11 @@
       <c r="J61" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K61" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -2830,8 +3022,11 @@
       <c r="J62" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -2856,8 +3051,11 @@
       <c r="J63" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -2882,8 +3080,11 @@
       <c r="J64" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -2908,8 +3109,11 @@
       <c r="J65" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -2934,8 +3138,11 @@
       <c r="J66" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>64</v>
       </c>
@@ -2960,8 +3167,11 @@
       <c r="J67" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>65</v>
       </c>
@@ -2986,10 +3196,13 @@
       <c r="J68" s="2">
         <v>165</v>
       </c>
+      <c r="K68" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/制作模板表.xlsx
+++ b/ExcelConfig/制作模板表.xlsx
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="K58" sqref="K58:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1201,8 @@
     <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
